--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B407796B-A59C-4D7C-A3FB-943672813E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41355FAC-F9BC-4C72-A003-A22C4929BC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
@@ -29,14 +29,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -283,9 +275,6 @@
     <t>Number of employees in each department</t>
   </si>
   <si>
-    <t>IF(D4&gt;=4000,"YES","NO")</t>
-  </si>
-  <si>
     <t>OR(B4="YES",C4="YES")</t>
   </si>
   <si>
@@ -335,6 +324,9 @@
   </si>
   <si>
     <t>Using  IFNA</t>
+  </si>
+  <si>
+    <t>IF(D2&gt;=4000,"YES","NO")</t>
   </si>
 </sst>
 </file>
@@ -871,7 +863,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -909,10 +901,7 @@
       <c r="D2" s="1">
         <v>5000</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>IF(D2&lt;=4000,"YES","NO")</f>
-        <v>NO</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="G2" s="15" t="s">
         <v>46</v>
       </c>
@@ -938,10 +927,7 @@
         <f t="shared" ref="D3:D5" si="0">C3*B3</f>
         <v>4800</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E5" si="1">IF(D3&lt;=4000,"YES","NO")</f>
-        <v>NO</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -965,10 +951,7 @@
         <f t="shared" si="0"/>
         <v>3250</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -992,10 +975,7 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -1024,7 +1004,7 @@
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1055,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>62</v>
@@ -1063,7 +1043,7 @@
     </row>
     <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="13">
         <v>3000</v>
@@ -1071,7 +1051,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="13">
         <v>5000</v>
@@ -1079,7 +1059,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="13">
         <v>7000</v>
@@ -1090,7 +1070,7 @@
     <row r="7" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1103,13 +1083,13 @@
     </row>
     <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1118,7 +1098,7 @@
     </row>
     <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="e">
         <f>VLOOKUP(B10,A2:B4,2,FALSE)</f>
@@ -1202,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1217,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1296,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1354,7 +1334,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="M5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1435,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1493,7 +1473,7 @@
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1539,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1653,7 +1633,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G6" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1871,7 +1851,7 @@
         <v>No Value</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41355FAC-F9BC-4C72-A003-A22C4929BC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04C0A59-93C6-4C09-9533-6D6C9BF33B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1134,10 +1134,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254C606E-5F9B-4BF4-BE0A-1D000409F7A6}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,10 +1145,11 @@
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>42505</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1170,54 +1171,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>42491</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="b">
-        <f>AND(A4&gt;B2,A4&lt;C2)</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="C4" s="1"/>
+      <c r="E4" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>42563</v>
       </c>
       <c r="B5" s="1">
         <v>120</v>
       </c>
-      <c r="C5" s="1" t="b">
-        <f>AND(A5&gt;B2,A5&lt;C2)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="C5" s="1"/>
+      <c r="E5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04C0A59-93C6-4C09-9533-6D6C9BF33B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5AA6FA-1FB4-4117-80AF-9D2CE1E5AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>Number of employees in each department</t>
   </si>
   <si>
-    <t>OR(B4="YES",C4="YES")</t>
-  </si>
-  <si>
     <t>NOT(D4)</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>IF(D2&gt;=4000,"YES","NO")</t>
+  </si>
+  <si>
+    <t>OR(B2="YES",C2="YES")</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1035,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>62</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="13">
         <v>3000</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="13">
         <v>5000</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="13">
         <v>7000</v>
@@ -1070,7 +1070,7 @@
     <row r="7" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="e">
         <f>VLOOKUP(B10,A2:B4,2,FALSE)</f>
@@ -1136,7 +1136,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1228,10 +1228,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5A64B1-3DDE-46E7-92C3-E6DDE45E7410}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1239,10 +1239,11 @@
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
     <col min="13" max="13" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,12 +1267,9 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <f>OR(B2="YES",C2="YES")</f>
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="F2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1279,7 +1277,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1289,10 +1287,7 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <f>OR(B3="YES",C3="YES")</f>
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1300,7 +1295,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1310,10 +1305,7 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <f>OR(B4="YES",C4="YES")</f>
-        <v>0</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1321,18 +1313,15 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="M5" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1340,13 +1329,18 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1410,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1528,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G6" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1846,7 +1840,7 @@
         <v>No Value</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5AA6FA-1FB4-4117-80AF-9D2CE1E5AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE67D60-3331-4AAE-8D0A-7870FB6BD165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>Number of employees in each department</t>
   </si>
   <si>
-    <t>NOT(D4)</t>
-  </si>
-  <si>
     <t>AND(A5&gt;B2,A5&lt;C2)</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>OR(B2="YES",C2="YES")</t>
+  </si>
+  <si>
+    <t>NOT(D2)</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1035,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>62</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13">
         <v>3000</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="13">
         <v>5000</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="13">
         <v>7000</v>
@@ -1070,7 +1070,7 @@
     <row r="7" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="e">
         <f>VLOOKUP(B10,A2:B4,2,FALSE)</f>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="9" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1356,8 +1356,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1399,12 +1399,9 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <f>NOT(D2)</f>
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="G2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1425,10 +1422,7 @@
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <f>NOT(D3)</f>
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -1449,10 +1443,7 @@
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <f>NOT(D4)</f>
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1462,7 +1453,7 @@
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1519,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1622,7 +1613,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1840,7 +1831,7 @@
         <v>No Value</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE67D60-3331-4AAE-8D0A-7870FB6BD165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9EFB8-A25D-4BE7-B6F1-CC4E79FE0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>Item</t>
   </si>
@@ -328,6 +328,9 @@
   <si>
     <t>NOT(D2)</t>
   </si>
+  <si>
+    <t>XOR(B2=1000,C2&gt;1000)</t>
+  </si>
 </sst>
 </file>
 
@@ -336,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +380,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -504,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -544,6 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1356,7 +1368,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1468,10 +1480,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102750E-0E47-4CF2-AE6A-F319F6DE5082}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1628,6 +1640,11 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="21" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9EFB8-A25D-4BE7-B6F1-CC4E79FE0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3F5CD-663F-4460-AF2E-C24025CA2AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>Item</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>XOR(B2=1000,C2&gt;1000)</t>
+  </si>
+  <si>
+    <t>IF(ISBLANK(C2),"YES","NO")</t>
+  </si>
+  <si>
+    <t>IFERROR(C2,"No Value")</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1488,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1659,16 +1665,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC27C5-6BCC-45D2-8726-BB5CA62D3EA9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.453125" customWidth="1"/>
     <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1693,10 +1700,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="str">
-        <f>IF(ISBLANK(C2),"YES","NO")</f>
-        <v>YES</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="G2" s="15" t="s">
         <v>58</v>
       </c>
@@ -1717,10 +1721,7 @@
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f>IF(ISBLANK(C3),"YES","NO")</f>
-        <v>NO</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -1739,10 +1740,7 @@
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D6" si="0">IF(ISBLANK(C4),"YES","NO")</f>
-        <v>NO</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1759,10 +1757,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>YES</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -1781,10 +1776,7 @@
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1792,6 +1784,11 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1805,10 +1802,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0CB1C2-1CC0-40ED-A5DA-F564F8EBC5CF}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1816,6 +1813,7 @@
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1843,10 +1841,7 @@
         <f>A2/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>IFERROR(C2,"No Value")</f>
-        <v>No Value</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="F2" s="15" t="s">
         <v>80</v>
       </c>
@@ -1866,10 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <f>IFERROR(C3,"No Value")</f>
-        <v>0</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1890,10 +1882,7 @@
         <f t="shared" ref="C4:C7" si="0">A4/B4</f>
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D7" si="1">IFERROR(C4,"No Value")</f>
-        <v>5</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1914,10 +1903,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f>IFERROR(C5,"No Value")</f>
-        <v>No Value</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1930,10 +1916,7 @@
         <f t="shared" si="0"/>
         <v>85.333333333333329</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>85.333333333333329</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1946,9 +1929,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>No Value</v>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3F5CD-663F-4460-AF2E-C24025CA2AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042038E1-D2F4-4450-AA56-1ED8EF653467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Item</t>
   </si>
@@ -337,6 +337,12 @@
   <si>
     <t>IFERROR(C2,"No Value")</t>
   </si>
+  <si>
+    <t>SUMIF(A2:A9,100,C2:C9)</t>
+  </si>
+  <si>
+    <t>COUNTIF(A2:A9,100)</t>
+  </si>
 </sst>
 </file>
 
@@ -345,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +400,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -521,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -562,6 +576,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1804,8 +1819,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1947,10 +1962,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA9FAB4-DC51-4F37-B27C-29CF655C7AA3}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08984375" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1958,9 +1973,10 @@
     <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="15.90625" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -1976,7 +1992,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1993,8 +2009,11 @@
         <f>SUMIF(A2:A9,100,C2:C9)</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>102</v>
       </c>
@@ -2012,7 +2031,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>101</v>
       </c>
@@ -2030,7 +2049,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>105</v>
       </c>
@@ -2045,7 +2064,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>100</v>
       </c>
@@ -2056,7 +2075,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>102</v>
       </c>
@@ -2067,7 +2086,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>102</v>
       </c>
@@ -2078,7 +2097,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>105</v>
       </c>
@@ -2101,18 +2120,19 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE2835A-F156-4C4E-8D58-287F9E35C0FF}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.08984375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2148,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -2145,8 +2165,11 @@
         <f>COUNTIF(A2:A9,100)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>102</v>
       </c>
@@ -2164,7 +2187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>101</v>
       </c>
@@ -2179,7 +2202,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>105</v>
       </c>
@@ -2194,7 +2217,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>100</v>
       </c>
@@ -2205,7 +2228,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>102</v>
       </c>
@@ -2216,7 +2239,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>102</v>
       </c>
@@ -2227,7 +2250,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>105</v>
       </c>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042038E1-D2F4-4450-AA56-1ED8EF653467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3293B86-584F-4F02-84EC-F7A2CF589FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="IFERROR" sheetId="8" r:id="rId7"/>
     <sheet name="SUMIF" sheetId="9" r:id="rId8"/>
     <sheet name="COUNTIF" sheetId="10" r:id="rId9"/>
-    <sheet name="IFNA" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>Item</t>
   </si>
@@ -230,9 +229,6 @@
 If MGR ID is blank display “No”</t>
   </si>
   <si>
-    <t xml:space="preserve">The IFNA function in Excel returns an alternate value as specified by the user if a formula results in an #N/A error. </t>
-  </si>
-  <si>
     <t>E004</t>
   </si>
   <si>
@@ -297,27 +293,6 @@
   <si>
     <t>The Microsoft Excel IFERROR function returns an alternate value if a formula results an error.
 It will check for errors such as #N/A, #VALUE!, #REF!, #DIV/0!, #NUM!, #NAME? or #NULL. </t>
-  </si>
-  <si>
-    <t>Emp Name</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Find the Salary for George based on the Emp data above</t>
-  </si>
-  <si>
-    <t>Using  IFNA</t>
   </si>
   <si>
     <t>IF(D2&gt;=4000,"YES","NO")</t>
@@ -348,10 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,22 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +416,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +481,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -555,8 +504,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,11 +522,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,16 +881,16 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -961,14 +907,14 @@
         <v>4800</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -985,14 +931,14 @@
         <v>3250</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1009,35 +955,35 @@
         <v>3000</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1048,119 +994,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4B73E-4CC0-4384-8CF1-A32F68AB8AB5}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="13">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="1" t="e">
-        <f>VLOOKUP(B10,A2:B4,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,A2:B4,2,FALSE),"Lookup value not existing")</f>
-        <v>Lookup value not existing</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E9:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B11" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1213,7 +1046,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1225,30 +1058,30 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1301,14 +1134,14 @@
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1321,12 +1154,12 @@
         <v>20</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1339,40 +1172,40 @@
         <v>21</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1433,14 +1266,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="G2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1456,12 +1289,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1477,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1551,14 +1384,14 @@
       <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="G2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1577,12 +1410,12 @@
       <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1601,12 +1434,12 @@
       <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1631,12 +1464,12 @@
       <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="9" t="s">
         <v>51</v>
       </c>
@@ -1645,26 +1478,26 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="21" t="s">
-        <v>91</v>
+      <c r="E8" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1716,15 +1549,15 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1737,13 +1570,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1756,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1773,13 +1606,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1792,17 +1625,17 @@
         <v>39</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1857,16 +1690,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1877,14 +1710,14 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1898,14 +1731,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1948,7 +1781,7 @@
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1978,19 +1811,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
@@ -2003,14 +1836,14 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <f>SUMIF(A2:A9,100,C2:C9)</f>
         <v>6000</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>94</v>
+      <c r="H2" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -2024,7 +1857,7 @@
         <v>2200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1">
         <f>SUMIF(A2:A9,102,C2:C9)</f>
@@ -2042,7 +1875,7 @@
         <v>3400</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1">
         <f>SUMIF(A2:A9,101,C2:C9)</f>
@@ -2054,13 +1887,13 @@
         <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6">
         <v>3300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2069,7 +1902,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6">
         <v>4000</v>
@@ -2080,7 +1913,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6">
         <v>2300</v>
@@ -2091,7 +1924,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6">
         <v>4100</v>
@@ -2102,7 +1935,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6">
         <v>4300</v>
@@ -2134,19 +1967,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
@@ -2159,14 +1992,14 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTIF(A2:A9,100)</f>
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>95</v>
+      <c r="H2" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2180,7 +2013,7 @@
         <v>2200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(A2:A9,102)</f>
@@ -2198,7 +2031,7 @@
         <v>3400</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2207,13 +2040,13 @@
         <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6">
         <v>3300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2222,7 +2055,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6">
         <v>4000</v>
@@ -2233,7 +2066,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6">
         <v>2300</v>
@@ -2244,7 +2077,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6">
         <v>4100</v>
@@ -2255,7 +2088,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6">
         <v>4300</v>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3293B86-584F-4F02-84EC-F7A2CF589FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01C56D-1BB1-46DB-BF7A-3081BDA4DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="IFERROR" sheetId="8" r:id="rId7"/>
     <sheet name="SUMIF" sheetId="9" r:id="rId8"/>
     <sheet name="COUNTIF" sheetId="10" r:id="rId9"/>
+    <sheet name="IFNA" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Item</t>
   </si>
@@ -229,6 +230,9 @@
 If MGR ID is blank display “No”</t>
   </si>
   <si>
+    <t xml:space="preserve">The IFNA function in Excel returns an alternate value as specified by the user if a formula results in an #N/A error. </t>
+  </si>
+  <si>
     <t>E004</t>
   </si>
   <si>
@@ -293,6 +297,27 @@
   <si>
     <t>The Microsoft Excel IFERROR function returns an alternate value if a formula results an error.
 It will check for errors such as #N/A, #VALUE!, #REF!, #DIV/0!, #NUM!, #NAME? or #NULL. </t>
+  </si>
+  <si>
+    <t>Emp Name</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Find the Salary for George based on the Emp data above</t>
+  </si>
+  <si>
+    <t>Using  IFNA</t>
   </si>
   <si>
     <t>IF(D2&gt;=4000,"YES","NO")</t>
@@ -323,7 +348,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +382,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,10 +531,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -504,6 +555,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,10 +575,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -881,16 +935,16 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -907,14 +961,14 @@
         <v>4800</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -931,14 +985,14 @@
         <v>3250</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -955,35 +1009,35 @@
         <v>3000</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -994,6 +1048,109 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB9ECC-9D50-404C-89FA-42C8EDD646C8}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1046,7 +1203,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1058,30 +1215,30 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1134,14 +1291,14 @@
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="F2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1154,12 +1311,12 @@
         <v>20</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1172,40 +1329,40 @@
         <v>21</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1266,14 +1423,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="G2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1289,12 +1446,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1310,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1384,14 +1541,14 @@
       <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="G2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1410,12 +1567,12 @@
       <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1434,12 +1591,12 @@
       <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1464,12 +1621,12 @@
       <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="9" t="s">
         <v>51</v>
       </c>
@@ -1478,26 +1635,26 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="19" t="s">
-        <v>83</v>
+      <c r="E8" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1549,15 +1706,15 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1570,13 +1727,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1589,13 +1746,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1606,13 +1763,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1625,17 +1782,17 @@
         <v>39</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1690,16 +1847,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="F2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1710,14 +1867,14 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1731,14 +1888,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1781,7 +1938,7 @@
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1811,19 +1968,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
@@ -1836,14 +1993,14 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1">
         <f>SUMIF(A2:A9,100,C2:C9)</f>
         <v>6000</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>86</v>
+      <c r="H2" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -1857,7 +2014,7 @@
         <v>2200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1">
         <f>SUMIF(A2:A9,102,C2:C9)</f>
@@ -1875,7 +2032,7 @@
         <v>3400</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1">
         <f>SUMIF(A2:A9,101,C2:C9)</f>
@@ -1887,13 +2044,13 @@
         <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6">
         <v>3300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1902,7 +2059,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6">
         <v>4000</v>
@@ -1913,7 +2070,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6">
         <v>2300</v>
@@ -1924,7 +2081,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6">
         <v>4100</v>
@@ -1935,7 +2092,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6">
         <v>4300</v>
@@ -1955,7 +2112,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1967,19 +2124,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
@@ -1992,14 +2149,14 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTIF(A2:A9,100)</f>
         <v>2</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>87</v>
+      <c r="H2" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2013,7 +2170,7 @@
         <v>2200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(A2:A9,102)</f>
@@ -2031,7 +2188,7 @@
         <v>3400</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2040,13 +2197,13 @@
         <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6">
         <v>3300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2055,7 +2212,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6">
         <v>4000</v>
@@ -2066,7 +2223,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6">
         <v>2300</v>
@@ -2077,7 +2234,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6">
         <v>4100</v>
@@ -2088,7 +2245,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6">
         <v>4300</v>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01C56D-1BB1-46DB-BF7A-3081BDA4DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A402E38-6273-4C7C-B023-B096979BC494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>

--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A402E38-6273-4C7C-B023-B096979BC494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C9463E-6CF7-4388-AAE5-4F455771C6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -557,6 +557,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,8 +577,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -895,12 +895,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -935,16 +936,16 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -961,14 +962,14 @@
         <v>4800</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -985,14 +986,14 @@
         <v>3250</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1009,31 +1010,31 @@
         <v>3000</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="12" t="s">
@@ -1046,6 +1047,7 @@
     <mergeCell ref="G2:N6"/>
     <mergeCell ref="B7:D7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1055,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB9ECC-9D50-404C-89FA-42C8EDD646C8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1106,12 +1108,12 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -1123,10 +1125,10 @@
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1134,16 +1136,16 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1219,26 +1221,26 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1291,14 +1293,14 @@
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1311,12 +1313,12 @@
         <v>20</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1329,36 +1331,36 @@
         <v>21</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
@@ -1423,14 +1425,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1446,12 +1448,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1467,12 +1469,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="12" t="s">
@@ -1541,14 +1543,14 @@
       <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1567,12 +1569,12 @@
       <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1591,12 +1593,12 @@
       <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1621,12 +1623,12 @@
       <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="9" t="s">
         <v>51</v>
       </c>
@@ -1635,25 +1637,25 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1706,15 +1708,15 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1727,13 +1729,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1746,13 +1748,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1763,13 +1765,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1782,13 +1784,13 @@
         <v>39</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
@@ -1847,16 +1849,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1867,14 +1869,14 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1888,14 +1890,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1976,11 +1978,11 @@
       <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
@@ -1999,7 +2001,7 @@
         <f>SUMIF(A2:A9,100,C2:C9)</f>
         <v>6000</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2132,11 +2134,11 @@
       <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
@@ -2155,7 +2157,7 @@
         <f>COUNTIF(A2:A9,100)</f>
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2260,14 +2262,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2514,21 +2514,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44B743-AF4E-421C-9BA3-3A359B1A5A18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA96CCA-F24D-4930-96C7-12F82DE9658D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
-    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2553,9 +2552,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA96CCA-F24D-4930-96C7-12F82DE9658D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44B743-AF4E-421C-9BA3-3A359B1A5A18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
+    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logical_Functions/Logical_Function_InClass.xlsx
+++ b/Logical_Functions/Logical_Function_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Logical_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C9463E-6CF7-4388-AAE5-4F455771C6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C0F4E-3A84-4665-87C6-1BB84A052DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="4" activeTab="9" xr2:uid="{0AC22929-8D75-4A25-9A74-B6F09F446E68}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Item</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>COUNTIF(A2:A9,100)</t>
+  </si>
+  <si>
+    <t>Greater than 4000</t>
+  </si>
+  <si>
+    <t>Less than 4000</t>
+  </si>
+  <si>
+    <t>Blank C2</t>
+  </si>
+  <si>
+    <t>Not Blank C2</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +481,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -530,12 +554,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -575,6 +610,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,8 +940,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -935,7 +980,13 @@
       <c r="D2" s="1">
         <v>5000</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f>IF(D2&gt;=4000,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
       <c r="G2" s="17" t="s">
         <v>46</v>
       </c>
@@ -961,7 +1012,13 @@
         <f t="shared" ref="D3:D5" si="0">C3*B3</f>
         <v>4800</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="str">
+        <f>IF(D3&gt;=4000,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -985,7 +1042,13 @@
         <f t="shared" si="0"/>
         <v>3250</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="str">
+        <f>IF(D4&gt;=4000,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1009,7 +1072,13 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="str">
+        <f>IF(D5&gt;=4000,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1057,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB9ECC-9D50-404C-89FA-42C8EDD646C8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1134,8 +1203,14 @@
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="e">
+        <f>VLOOKUP(B10,A2:B4,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B10,A2:B4,2,FALSE),"Lookup value not existing")</f>
+        <v>Lookup value not existing</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1162,7 +1237,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1278,10 @@
       <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="b">
+        <f>AND(A4&gt;B2,A4&lt;C2)</f>
+        <v>1</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>75</v>
       </c>
@@ -1215,7 +1293,10 @@
       <c r="B5" s="1">
         <v>120</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="b">
+        <f>AND(A5&gt;B2,A5&lt;C2)</f>
+        <v>0</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>74</v>
       </c>
@@ -1256,7 +1337,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1292,7 +1373,10 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="b">
+        <f>OR(B2="YES",C2="YES")</f>
+        <v>1</v>
+      </c>
       <c r="F2" s="17" t="s">
         <v>76</v>
       </c>
@@ -1312,7 +1396,10 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="b">
+        <f>OR(B3="YES",C3="YES")</f>
+        <v>1</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -1330,7 +1417,10 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="b">
+        <f>OR(B4="YES",C4="YES")</f>
+        <v>0</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1382,7 +1472,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1424,7 +1514,10 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="b">
+        <f>NOT(D2)</f>
+        <v>0</v>
+      </c>
       <c r="G2" s="17" t="s">
         <v>77</v>
       </c>
@@ -1447,7 +1540,10 @@
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="b">
+        <f>NOT(D3)</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1468,7 +1564,10 @@
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="b">
+        <f>NOT(D4)</f>
+        <v>1</v>
+      </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1496,7 +1595,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1563,7 +1662,7 @@
         <v>840</v>
       </c>
       <c r="D3" s="1" t="b">
-        <f>_xlfn.XOR(B3=230,C3=840)</f>
+        <f>_xlfn.XOR(B3=230,C3&gt;230)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1617,7 +1716,7 @@
         <v>800</v>
       </c>
       <c r="D5" s="1" t="b">
-        <f>_xlfn.XOR(B5&gt;=650,C5&lt;=800)</f>
+        <f>_xlfn.XOR(B5&gt;=650,C5&gt;=800)</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1675,7 +1774,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1707,7 +1806,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="str">
+        <f>IF(ISBLANK(C2),"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
       <c r="G2" s="17" t="s">
         <v>58</v>
       </c>
@@ -1728,7 +1833,13 @@
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D6" si="0">IF(ISBLANK(C3),"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1747,7 +1858,10 @@
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1764,7 +1878,13 @@
         <v>35</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1783,7 +1903,10 @@
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1812,7 +1935,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1848,7 +1971,10 @@
         <f>A2/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="str">
+        <f>IFERROR(C2,"No Value")</f>
+        <v>No Value</v>
+      </c>
       <c r="F2" s="17" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1994,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <f>IFERROR(C3,"No Value")</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -1889,7 +2018,10 @@
         <f t="shared" ref="C4:C7" si="0">A4/B4</f>
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <f>IFERROR(C4,"No Value")</f>
+        <v>5</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1910,7 +2042,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <f>IFERROR(C5,"No Value")</f>
+        <v>No Value</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1923,7 +2058,10 @@
         <f t="shared" si="0"/>
         <v>85.333333333333329</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <f>IFERROR(C6,"No Value")</f>
+        <v>85.333333333333329</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1936,7 +2074,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="str">
+        <f>IFERROR(C7,"No Value")</f>
+        <v>No Value</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="12" t="s">
@@ -1957,7 +2098,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.08984375" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1985,13 +2126,13 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+      <c r="A2" s="24">
         <v>100</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="24">
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2006,13 +2147,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="25">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="25">
         <v>2200</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2024,13 +2165,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="26">
         <v>101</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="26">
         <v>3400</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2054,38 +2195,41 @@
       <c r="E5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <f>SUMIF(A2:A9,105,C2:C9)</f>
+        <v>7600</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="24">
         <v>100</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="24">
         <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="25">
         <v>102</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="25">
         <v>2300</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="25">
         <v>102</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="25">
         <v>4100</v>
       </c>
     </row>
@@ -2115,7 +2259,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.08984375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2154,7 +2298,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="1">
-        <f>COUNTIF(A2:A9,100)</f>
+        <f>COUNTIF(A$2:A$9,100)</f>
         <v>2</v>
       </c>
       <c r="H2" s="16" t="s">
@@ -2175,7 +2319,7 @@
         <v>70</v>
       </c>
       <c r="F3" s="1">
-        <f>COUNTIF(A2:A9,102)</f>
+        <f>COUNTIF(A$2:A$9,102)</f>
         <v>3</v>
       </c>
     </row>
@@ -2192,7 +2336,10 @@
       <c r="E4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <f>COUNTIF(A$2:A$9,101)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -2207,7 +2354,10 @@
       <c r="E5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <f>COUNTIF(A$2:A$9,105)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
